--- a/results/tables/table_S3.xlsx
+++ b/results/tables/table_S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters &amp; Results" sheetId="1" state="visible" r:id="rId2"/>
@@ -620,8 +620,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>102</v>
@@ -712,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/results/tables/table_S3.xlsx
+++ b/results/tables/table_S3.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Parameters &amp; Results" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Gapfilled Reactions" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Reintroduced Reactions" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
   <si>
     <t xml:space="preserve">GIMME</t>
   </si>
@@ -29,25 +29,49 @@
     <t xml:space="preserve">iMAT</t>
   </si>
   <si>
+    <t xml:space="preserve">CORDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transcriptome:</t>
   </si>
   <si>
     <t xml:space="preserve">M9+glucose</t>
   </si>
   <si>
+    <t xml:space="preserve">CORDA Reconstruction Report</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lower cutoff:</t>
   </si>
   <si>
+    <t xml:space="preserve">build status: reconstruction complete</t>
+  </si>
+  <si>
     <t xml:space="preserve">Upper cutoff:</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
+    <t xml:space="preserve">Inc. reactions: 1001/2583</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraction of optimum:</t>
   </si>
   <si>
+    <t xml:space="preserve"> - unclear: 231/621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - exclude: 0/0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Resulting Objective Value:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - low and medium: 611/1784</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - high: 159/178</t>
   </si>
   <si>
     <t xml:space="preserve">ABUTt2pp</t>
@@ -504,12 +528,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -528,21 +551,139 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -550,8 +691,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,8 +731,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -585,31 +792,112 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -618,16 +906,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,60 +928,103 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>900</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -724,973 +1057,973 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/table_S3.xlsx
+++ b/results/tables/table_S3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters &amp; Results" sheetId="1" state="visible" r:id="rId2"/>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">b0009</t>
   </si>
   <si>
+    <t xml:space="preserve">b0918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b0084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4160</t>
+  </si>
+  <si>
     <t xml:space="preserve">Experimentally essential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b4160</t>
   </si>
   <si>
     <t xml:space="preserve">b3041</t>
@@ -1395,7 +1395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1430,11 +1430,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1562,7 +1557,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1603,8 +1598,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1914,8 +1909,8 @@
   </sheetPr>
   <dimension ref="A1:M339"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2094,19 +2089,16 @@
         <v>23</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>44</v>
@@ -2116,7 +2108,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="K8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,6 +2125,9 @@
         <v>35</v>
       </c>
       <c r="H9" s="6"/>
+      <c r="I9" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="8" t="s">
         <v>50</v>
       </c>
@@ -2178,7 +2173,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>57</v>
@@ -2217,7 +2212,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>62</v>
@@ -2328,7 +2323,7 @@
         <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="6"/>
       <c r="K20" s="8" t="s">
@@ -2337,7 +2332,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>63</v>
@@ -2944,7 +2939,7 @@
       </c>
       <c r="H54" s="6"/>
       <c r="K54" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,7 +3637,7 @@
         <v>264</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" s="6"/>
       <c r="K93" s="8" t="s">
@@ -3789,7 +3784,7 @@
         <v>182</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>288</v>
@@ -3861,7 +3856,7 @@
         <v>119</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>72</v>
